--- a/in-progress/Ghosh_2013_JMatChemA/SUBMISSION/S2/S2_template.xlsx
+++ b/in-progress/Ghosh_2013_JMatChemA/SUBMISSION/S2/S2_template.xlsx
@@ -1122,6 +1122,7 @@
     <cellStyle builtinId="8" name="Lien hypertexte" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors/>
 </styleSheet>
 </file>
 
@@ -1841,7 +1842,7 @@
       <c r="B14" s="131" t="n"/>
       <c r="C14" s="131" t="inlineStr">
         <is>
-          <t>S2/storage_modulus.xlsx</t>
+          <t>S2_storage_modulus.xlsx</t>
         </is>
       </c>
       <c r="D14" s="160" t="n"/>

--- a/in-progress/Ghosh_2013_JMatChemA/SUBMISSION/S2/S2_template.xlsx
+++ b/in-progress/Ghosh_2013_JMatChemA/SUBMISSION/S2/S2_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="605" visibility="visible" windowHeight="16560" windowWidth="28800" xWindow="0" yWindow="460"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="605" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="28680" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="legend" sheetId="1" state="visible" r:id="rId1"/>
@@ -1067,6 +1067,7 @@
     </xf>
     <xf borderId="1" fillId="2" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf borderId="2" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="2" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1109,7 +1110,6 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf applyAlignment="1" borderId="31" fillId="5" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1119,7 +1119,7 @@
   <cellStyles count="3">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle builtinId="8" name="Lien hypertexte" xfId="2"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors/>
@@ -1433,13 +1433,13 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="125" width="17"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="125" width="39.83203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="125" width="39.77734375"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16" r="1" s="125">
+    <row customHeight="1" ht="15.6" r="1" s="125">
       <c r="A1" s="38" t="inlineStr">
         <is>
           <t>COLOR LEGENDS</t>
@@ -1448,7 +1448,7 @@
       <c r="B1" s="38" t="n"/>
       <c r="C1" s="38" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="2" s="125">
+    <row customHeight="1" ht="15.6" r="2" s="125">
       <c r="A2" s="38" t="n"/>
       <c r="B2" s="39" t="n"/>
       <c r="C2" s="38" t="inlineStr">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="3" s="125">
+    <row customHeight="1" ht="15.6" r="3" s="125">
       <c r="A3" s="38" t="n"/>
       <c r="B3" s="40" t="n"/>
       <c r="C3" s="38" t="inlineStr">
@@ -1483,13 +1483,13 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="125" width="42"/>
-    <col bestFit="1" customWidth="1" max="3" min="2" style="125" width="10.83203125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="125" width="15.5"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="125" width="16.1640625"/>
-    <col customWidth="1" max="7" min="7" style="125" width="11.1640625"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" style="125" width="10.77734375"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="125" width="15.44140625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="125" width="16.109375"/>
+    <col customWidth="1" max="7" min="7" style="125" width="11.109375"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="21" r="1" s="125">
@@ -1503,14 +1503,14 @@
       <c r="D1" s="132" t="n"/>
       <c r="E1" s="132" t="n"/>
     </row>
-    <row customHeight="1" ht="61.25" r="2" s="125">
-      <c r="A2" s="175" t="inlineStr">
+    <row customHeight="1" ht="61.2" r="2" s="125">
+      <c r="A2" s="176" t="inlineStr">
         <is>
           <t>Instructions: If only a single value and unit, then fill in the fixed value and unit; otherwise, if data is distributed, please save the results in an excel file and enter the excel filename under the column of "Datafile".</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="4" s="125">
+    <row customHeight="1" ht="15.6" r="4" s="125">
       <c r="A4" s="21" t="inlineStr">
         <is>
           <t>Volumetric</t>
@@ -1675,13 +1675,13 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="125" width="42"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="125" width="11.1640625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="125" width="10.83203125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="125" width="15.5"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="125" width="16.1640625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="125" width="11.109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="125" width="10.77734375"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="125" width="15.44140625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="125" width="16.109375"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="21" r="1" s="125">
@@ -1695,14 +1695,14 @@
       <c r="D1" s="132" t="n"/>
       <c r="E1" s="132" t="n"/>
     </row>
-    <row customHeight="1" ht="61.25" r="2" s="125">
-      <c r="A2" s="175" t="inlineStr">
+    <row customHeight="1" ht="61.2" r="2" s="125">
+      <c r="A2" s="176" t="inlineStr">
         <is>
           <t>Instructions: If only a single value and unit, then fill in the fixed value and unit; otherwise, if data is distributed, please save the results in an excel file and enter the excel filename under the column of "Datafile".</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="4" s="125" thickBot="1">
+    <row customHeight="1" ht="16.2" r="4" s="125" thickBot="1">
       <c r="A4" s="21" t="inlineStr">
         <is>
           <t>Rheological</t>
@@ -1718,7 +1718,7 @@
       <c r="I4" s="160" t="n"/>
       <c r="J4" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="5" s="125">
+    <row customHeight="1" ht="15.6" r="5" s="125">
       <c r="A5" s="149" t="inlineStr">
         <is>
           <t>Complex Modulus #</t>
@@ -1859,7 +1859,7 @@
       <c r="D15" s="160" t="n"/>
       <c r="E15" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="16" s="125">
+    <row customHeight="1" ht="15.6" r="16" s="125">
       <c r="A16" s="142" t="inlineStr">
         <is>
           <t>Rheological tan_delta Datafile.xlsx</t>
@@ -1871,7 +1871,7 @@
       <c r="E16" s="136" t="n"/>
       <c r="F16" s="129" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="17" s="125" thickBot="1">
+    <row customHeight="1" ht="15" r="17" s="125" thickBot="1">
       <c r="A17" s="143" t="inlineStr">
         <is>
           <t>Master Curve.xlsx #</t>
@@ -1882,8 +1882,8 @@
       <c r="D17" s="145" t="n"/>
       <c r="E17" s="146" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="18" s="125" thickBot="1"/>
-    <row customHeight="1" ht="16" r="19" s="125">
+    <row customHeight="1" ht="15" r="18" s="125" thickBot="1"/>
+    <row customHeight="1" ht="15.6" r="19" s="125">
       <c r="A19" s="151" t="inlineStr">
         <is>
           <t>Viscosity #</t>
@@ -2055,7 +2055,7 @@
       <c r="G28" s="131" t="n"/>
       <c r="H28" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="29" s="125" thickBot="1">
+    <row customHeight="1" ht="15" r="29" s="125" thickBot="1">
       <c r="A29" s="143" t="inlineStr">
         <is>
           <t>Melt viscosity</t>
@@ -2090,11 +2090,11 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="125" width="36.1640625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="125" width="27.5"/>
-    <col customWidth="1" max="3" min="3" style="125" width="13.1640625"/>
+    <col customWidth="1" max="1" min="1" style="125" width="36.109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="125" width="27.44140625"/>
+    <col customWidth="1" max="3" min="3" style="125" width="13.109375"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="21" r="1" s="125">
@@ -2106,7 +2106,7 @@
       <c r="B1" s="11" t="n"/>
     </row>
     <row customHeight="1" ht="114" r="2" s="125">
-      <c r="A2" s="176" t="inlineStr">
+      <c r="A2" s="177" t="inlineStr">
         <is>
           <t>Instructions: Include as many high quality microstructure images as desired. 
 1. Put the filename in the corresponding box (line 5); 
@@ -2116,8 +2116,8 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="3" s="125" thickBot="1"/>
-    <row customHeight="1" ht="16" r="4" s="125">
+    <row customHeight="1" ht="15" r="3" s="125" thickBot="1"/>
+    <row customHeight="1" ht="15.6" r="4" s="125">
       <c r="A4" s="153" t="inlineStr">
         <is>
           <t>Imagefile #</t>
@@ -2175,7 +2175,7 @@
       <c r="A9" s="138" t="n"/>
       <c r="D9" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="10" s="125">
+    <row customHeight="1" ht="15.6" r="10" s="125">
       <c r="A10" s="80" t="inlineStr">
         <is>
           <t>Image dimension</t>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="D13" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="14" s="125" thickBot="1">
+    <row customHeight="1" ht="15" r="14" s="125" thickBot="1">
       <c r="A14" s="156" t="inlineStr">
         <is>
           <t>Preprocessing</t>
@@ -2250,7 +2250,7 @@
       <c r="D14" s="146" t="n"/>
     </row>
     <row r="15"/>
-    <row customHeight="1" ht="16" r="16" s="125">
+    <row customHeight="1" ht="15.6" r="16" s="125">
       <c r="A16" s="50" t="inlineStr">
         <is>
           <t>Sample experimental info</t>
@@ -2311,16 +2311,16 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="125" width="26.1640625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="125" width="27.1640625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="125" width="22.1640625"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="125" width="26.109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="125" width="27.109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="125" width="22.109375"/>
     <col customWidth="1" max="4" min="4" style="125" width="21"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="125" width="26.5"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="125" width="22.83203125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="125" width="14.83203125"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="125" width="15.5"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="125" width="26.44140625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="125" width="22.77734375"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="125" width="14.77734375"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="125" width="15.44140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3511,15 +3511,15 @@
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="43" width="44.83203125"/>
-    <col customWidth="1" max="2" min="2" style="43" width="27.83203125"/>
-    <col customWidth="1" max="3" min="3" style="43" width="29.5"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="43" width="44.77734375"/>
+    <col customWidth="1" max="2" min="2" style="43" width="27.77734375"/>
+    <col customWidth="1" max="3" min="3" style="43" width="29.44140625"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="21" r="1" s="125">
@@ -3536,14 +3536,14 @@
       </c>
     </row>
     <row customHeight="1" ht="60" r="2" s="125">
-      <c r="A2" s="176" t="inlineStr">
+      <c r="A2" s="177" t="inlineStr">
         <is>
           <t xml:space="preserve">Instructions: Each excel file is for a single sample. For multiple similar samples, duplicate the file and change only the necessary data. One file = one sample. </t>
         </is>
       </c>
       <c r="C2" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="3" s="125">
+    <row customHeight="1" ht="15.6" r="3" s="125">
       <c r="A3" s="44" t="inlineStr">
         <is>
           <t>Your Name</t>
@@ -3560,7 +3560,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="4" s="125">
+    <row customHeight="1" ht="15.6" r="4" s="125">
       <c r="A4" s="44" t="inlineStr">
         <is>
           <t>Your Email</t>
@@ -3572,7 +3572,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="32" r="5" s="125">
+    <row customHeight="1" ht="28.8" r="5" s="125">
       <c r="A5" s="119" t="inlineStr">
         <is>
           <t>Sample ID</t>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="6" s="125">
+    <row customHeight="1" ht="15.6" r="6" s="125">
       <c r="A6" s="44" t="inlineStr">
         <is>
           <t>Control sample ID</t>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="7" s="125">
+    <row customHeight="1" ht="15.6" r="7" s="125">
       <c r="A7" s="44" t="inlineStr">
         <is>
           <t>Origin</t>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="8" s="125">
+    <row customHeight="1" ht="15.6" r="8" s="125">
       <c r="A8" s="44" t="inlineStr">
         <is>
           <t>Citation Type</t>
@@ -3630,7 +3630,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="9" s="125">
+    <row customHeight="1" ht="15.6" r="9" s="125">
       <c r="A9" s="44" t="inlineStr">
         <is>
           <t>Publication Type</t>
@@ -3645,7 +3645,7 @@
     <row r="10">
       <c r="A10" s="46" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="11" s="125">
+    <row customHeight="1" ht="15.6" r="11" s="125">
       <c r="A11" s="44" t="inlineStr">
         <is>
           <t>DOI</t>
@@ -3657,7 +3657,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="13" s="125">
+    <row customHeight="1" ht="15.6" r="13" s="125">
       <c r="A13" s="47" t="inlineStr">
         <is>
           <t xml:space="preserve">If you have a DOI, then STOP HERE on this tab! Rest will be autofilled from DOI. </t>
@@ -3804,7 +3804,7 @@
       <c r="B30" s="160" t="n"/>
       <c r="C30" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="31" s="125">
+    <row customHeight="1" ht="15.6" r="31" s="125">
       <c r="A31" s="21" t="inlineStr">
         <is>
           <t>Laboratory Data Info</t>
@@ -3921,16 +3921,16 @@
       <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="125" width="47.1640625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="125" width="39.1640625"/>
-    <col customWidth="1" max="3" min="3" style="125" width="13.1640625"/>
-    <col customWidth="1" max="4" min="4" style="125" width="17.5"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="125" width="18.1640625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="125" width="38.5"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="125" width="22.83203125"/>
-    <col customWidth="1" max="8" min="8" style="125" width="13.83203125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="125" width="47.109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="125" width="39.109375"/>
+    <col customWidth="1" max="3" min="3" style="125" width="13.109375"/>
+    <col customWidth="1" max="4" min="4" style="125" width="17.44140625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="125" width="18.109375"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="125" width="38.44140625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="125" width="22.77734375"/>
+    <col customWidth="1" max="8" min="8" style="125" width="13.77734375"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="21" r="1" s="125">
@@ -3944,14 +3944,14 @@
       <c r="D1" s="132" t="n"/>
       <c r="E1" s="132" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="2" s="125">
-      <c r="A2" s="164" t="inlineStr">
+    <row customHeight="1" ht="15.6" r="2" s="125">
+      <c r="A2" s="165" t="inlineStr">
         <is>
           <t>Instructions: When there is a "#", copy the whole part and fill in more information if needed.</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="4" s="125">
+    <row customHeight="1" ht="15.6" r="4" s="125">
       <c r="A4" s="129" t="inlineStr">
         <is>
           <t>Matrix #</t>
@@ -3978,12 +3978,12 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="5" s="125">
+    <row customHeight="1" ht="15.6" r="5" s="125">
       <c r="A5" s="152" t="n"/>
       <c r="B5" s="152" t="n"/>
       <c r="C5" s="152" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="6" s="125">
+    <row customHeight="1" ht="15.6" r="6" s="125">
       <c r="A6" t="inlineStr">
         <is>
           <t>Chemical name</t>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="C6" s="152" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="7" s="125">
+    <row customHeight="1" ht="15.6" r="7" s="125">
       <c r="A7" t="inlineStr">
         <is>
           <t>PubChem Reference</t>
@@ -4005,7 +4005,7 @@
       <c r="B7" s="128" t="n"/>
       <c r="C7" s="152" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="8" s="125">
+    <row customHeight="1" ht="15.6" r="8" s="125">
       <c r="A8" t="inlineStr">
         <is>
           <t>Abbreviation</t>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="C8" s="152" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="9" s="125">
+    <row customHeight="1" ht="15.6" r="9" s="125">
       <c r="A9" t="inlineStr">
         <is>
           <t>Polymer constitutional unit (CU)</t>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="C9" s="152" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="10" s="125">
+    <row customHeight="1" ht="15.6" r="10" s="125">
       <c r="A10" t="inlineStr">
         <is>
           <t>Polymer plastic type</t>
@@ -4040,7 +4040,7 @@
       <c r="B10" s="19" t="n"/>
       <c r="C10" s="152" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="11" s="125">
+    <row customHeight="1" ht="15.6" r="11" s="125">
       <c r="A11" t="inlineStr">
         <is>
           <t>Polymer class</t>
@@ -4049,7 +4049,7 @@
       <c r="B11" s="19" t="n"/>
       <c r="C11" s="152" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="12" s="125">
+    <row customHeight="1" ht="15.6" r="12" s="125">
       <c r="A12" t="inlineStr">
         <is>
           <t>Polymer type</t>
@@ -4058,7 +4058,7 @@
       <c r="B12" s="19" t="n"/>
       <c r="C12" s="152" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="13" s="125">
+    <row customHeight="1" ht="15.6" r="13" s="125">
       <c r="A13" t="inlineStr">
         <is>
           <t>Polymer manufacturer or source name</t>
@@ -4067,7 +4067,7 @@
       <c r="B13" s="128" t="n"/>
       <c r="C13" s="152" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="14" s="125">
+    <row customHeight="1" ht="15.6" r="14" s="125">
       <c r="A14" t="inlineStr">
         <is>
           <t>Polymer trade name</t>
@@ -4086,7 +4086,7 @@
       <c r="C15" s="4" t="n"/>
       <c r="D15" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="16" s="125">
+    <row customHeight="1" ht="15.6" r="16" s="125">
       <c r="A16" t="inlineStr">
         <is>
           <t>Polydispersity</t>
@@ -4095,7 +4095,7 @@
       <c r="B16" s="128" t="n"/>
       <c r="C16" s="152" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="17" s="125">
+    <row customHeight="1" ht="15.6" r="17" s="125">
       <c r="A17" t="inlineStr">
         <is>
           <t>Tacticity</t>
@@ -4104,7 +4104,7 @@
       <c r="B17" s="19" t="n"/>
       <c r="C17" s="152" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="18" s="125">
+    <row customHeight="1" ht="15.6" r="18" s="125">
       <c r="A18" t="inlineStr">
         <is>
           <t>Density</t>
@@ -4114,7 +4114,7 @@
       <c r="C18" s="4" t="n"/>
       <c r="D18" s="59" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="19" s="125">
+    <row customHeight="1" ht="15.6" r="19" s="125">
       <c r="A19" t="inlineStr">
         <is>
           <t>Viscosity</t>
@@ -4123,7 +4123,7 @@
       <c r="B19" s="152" t="n"/>
       <c r="C19" s="53" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="20" s="125">
+    <row customHeight="1" ht="15.6" r="20" s="125">
       <c r="A20" t="inlineStr">
         <is>
           <t>Hardener</t>
@@ -4144,7 +4144,7 @@
       <c r="C21" s="86" t="n"/>
       <c r="D21" s="54" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="22" s="125">
+    <row customHeight="1" ht="15.6" r="22" s="125">
       <c r="A22" t="inlineStr">
         <is>
           <t>Matrix Component Composition weight fraction</t>
@@ -4153,7 +4153,7 @@
       <c r="B22" s="128" t="n"/>
       <c r="C22" s="128" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="23" s="125">
+    <row customHeight="1" ht="15.6" r="23" s="125">
       <c r="A23" t="inlineStr">
         <is>
           <t>Matrix Component Composition volume fraction</t>
@@ -4162,11 +4162,11 @@
       <c r="B23" s="128" t="n"/>
       <c r="C23" s="128" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="24" s="125">
+    <row customHeight="1" ht="15.6" r="24" s="125">
       <c r="B24" s="152" t="n"/>
       <c r="C24" s="152" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="25" s="125">
+    <row customHeight="1" ht="15.6" r="25" s="125">
       <c r="A25" s="18" t="inlineStr">
         <is>
           <t>Filler #</t>
@@ -4198,12 +4198,12 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="26" s="125">
+    <row customHeight="1" ht="15.6" r="26" s="125">
       <c r="A26" s="18" t="n"/>
       <c r="B26" s="152" t="n"/>
       <c r="C26" s="152" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="16" r="27" s="160">
+    <row customFormat="1" customHeight="1" ht="15.6" r="27" s="160">
       <c r="A27" s="152" t="inlineStr">
         <is>
           <t>Filler description</t>
@@ -4212,7 +4212,7 @@
       <c r="B27" s="128" t="n"/>
       <c r="C27" s="152" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="28" s="125">
+    <row customHeight="1" ht="15.6" r="28" s="125">
       <c r="A28" t="inlineStr">
         <is>
           <t>Filler chemical name/Filler name</t>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="C28" s="152" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="29" s="125">
+    <row customHeight="1" ht="15.6" r="29" s="125">
       <c r="A29" t="inlineStr">
         <is>
           <t>Filler PubChem reference</t>
@@ -4234,7 +4234,7 @@
       <c r="B29" s="128" t="n"/>
       <c r="C29" s="152" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="30" s="125">
+    <row customHeight="1" ht="15.6" r="30" s="125">
       <c r="A30" t="inlineStr">
         <is>
           <t>Filler abbreviation</t>
@@ -4243,7 +4243,7 @@
       <c r="B30" s="128" t="n"/>
       <c r="C30" s="152" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="31" s="125">
+    <row customHeight="1" ht="15.6" r="31" s="125">
       <c r="A31" t="inlineStr">
         <is>
           <t>Manufacturer or source name</t>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="C31" s="152" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="32" s="125">
+    <row customHeight="1" ht="15.6" r="32" s="125">
       <c r="A32" t="inlineStr">
         <is>
           <t>Trade name</t>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="C32" s="152" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="33" s="125">
+    <row customHeight="1" ht="15.6" r="33" s="125">
       <c r="A33" t="inlineStr">
         <is>
           <t>Density</t>
@@ -4279,7 +4279,7 @@
       <c r="C33" s="128" t="n"/>
       <c r="D33" s="59" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="34" s="125">
+    <row customHeight="1" ht="15.6" r="34" s="125">
       <c r="A34" t="inlineStr">
         <is>
           <t>Crystal phase</t>
@@ -4288,7 +4288,7 @@
       <c r="B34" s="128" t="n"/>
       <c r="C34" s="152" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="35" s="125">
+    <row customHeight="1" ht="15.6" r="35" s="125">
       <c r="A35" t="inlineStr">
         <is>
           <t>Particle diameter</t>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="E35" s="128" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="36" s="125">
+    <row customHeight="1" ht="15.6" r="36" s="125">
       <c r="A36" t="inlineStr">
         <is>
           <t>Specific surface area</t>
@@ -4315,7 +4315,7 @@
       <c r="C36" s="128" t="n"/>
       <c r="D36" s="128" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="16" r="37" s="160">
+    <row customFormat="1" customHeight="1" ht="15.6" r="37" s="160">
       <c r="A37" t="inlineStr">
         <is>
           <t>Total surface area</t>
@@ -4325,7 +4325,7 @@
       <c r="C37" s="128" t="n"/>
       <c r="D37" s="128" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="38" s="125">
+    <row customHeight="1" ht="15.6" r="38" s="125">
       <c r="A38" t="inlineStr">
         <is>
           <t>Aspect ratio</t>
@@ -4334,7 +4334,7 @@
       <c r="B38" s="128" t="n"/>
       <c r="C38" s="128" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="39" s="125">
+    <row customHeight="1" ht="15.6" r="39" s="125">
       <c r="A39" t="inlineStr">
         <is>
           <t>Non spherical shape-width</t>
@@ -4344,7 +4344,7 @@
       <c r="C39" s="128" t="n"/>
       <c r="D39" s="133" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="40" s="125">
+    <row customHeight="1" ht="15.6" r="40" s="125">
       <c r="A40" t="inlineStr">
         <is>
           <t>Non spherical shape-length</t>
@@ -4354,7 +4354,7 @@
       <c r="C40" s="128" t="n"/>
       <c r="D40" s="133" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="41" s="125">
+    <row customHeight="1" ht="15.6" r="41" s="125">
       <c r="A41" t="inlineStr">
         <is>
           <t>Non spherical shape-depth</t>
@@ -4364,7 +4364,7 @@
       <c r="C41" s="128" t="n"/>
       <c r="D41" s="133" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="42" s="125">
+    <row customHeight="1" ht="15.6" r="42" s="125">
       <c r="A42" t="inlineStr">
         <is>
           <t>Filler Component Composition weight fraction</t>
@@ -4373,7 +4373,7 @@
       <c r="B42" s="152" t="n"/>
       <c r="C42" s="128" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="43" s="125">
+    <row customHeight="1" ht="15.6" r="43" s="125">
       <c r="A43" t="inlineStr">
         <is>
           <t>Filler Component Composition volume fraction</t>
@@ -4382,7 +4382,7 @@
       <c r="B43" s="152" t="n"/>
       <c r="C43" s="128" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="45" s="125">
+    <row customHeight="1" ht="15.6" r="45" s="125">
       <c r="A45" s="18" t="inlineStr">
         <is>
           <t>Filler Composition</t>
@@ -4391,7 +4391,7 @@
       <c r="B45" s="152" t="n"/>
       <c r="C45" s="152" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="46" s="125">
+    <row customHeight="1" ht="15.6" r="46" s="125">
       <c r="A46" t="inlineStr">
         <is>
           <t>Fraction</t>
@@ -4406,7 +4406,7 @@
         <v>0.005</v>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="48" s="125">
+    <row customHeight="1" ht="15.6" r="48" s="125">
       <c r="A48" s="18" t="inlineStr">
         <is>
           <t>Particle Surface Treatment (PST) #</t>
@@ -4433,13 +4433,13 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="49" s="125">
+    <row customHeight="1" ht="15.6" r="49" s="125">
       <c r="A49" s="46" t="inlineStr">
         <is>
           <t>PST chemical name</t>
         </is>
       </c>
-      <c r="B49" s="177" t="inlineStr">
+      <c r="B49" s="163" t="inlineStr">
         <is>
           <t>polydimethylsiloxane</t>
         </is>
@@ -4448,7 +4448,7 @@
       <c r="D49" s="43" t="n"/>
       <c r="E49" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="50" s="125">
+    <row customHeight="1" ht="15.6" r="50" s="125">
       <c r="A50" s="46" t="inlineStr">
         <is>
           <t>PST abbreviation</t>
@@ -4459,7 +4459,7 @@
       <c r="D50" s="43" t="n"/>
       <c r="E50" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="51" s="125">
+    <row customHeight="1" ht="15.6" r="51" s="125">
       <c r="A51" t="inlineStr">
         <is>
           <t>PST constitutional unit</t>
@@ -4468,7 +4468,7 @@
       <c r="B51" s="128" t="n"/>
       <c r="E51" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="52" s="125">
+    <row customHeight="1" ht="15.6" r="52" s="125">
       <c r="A52" t="inlineStr">
         <is>
           <t>PST manufacturer or source name</t>
@@ -4479,7 +4479,7 @@
       <c r="D52" s="43" t="n"/>
       <c r="E52" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="53" s="125">
+    <row customHeight="1" ht="15.6" r="53" s="125">
       <c r="A53" s="46" t="inlineStr">
         <is>
           <t>PST trade name</t>
@@ -4490,7 +4490,7 @@
       <c r="D53" s="43" t="n"/>
       <c r="E53" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="54" s="125">
+    <row customHeight="1" ht="15.6" r="54" s="125">
       <c r="A54" s="46" t="inlineStr">
         <is>
           <t>PST density</t>
@@ -4501,7 +4501,7 @@
       <c r="D54" s="59" t="n"/>
       <c r="E54" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="55" s="125">
+    <row customHeight="1" ht="15.6" r="55" s="125">
       <c r="A55" s="46" t="inlineStr">
         <is>
           <t>PST population density</t>
@@ -4523,7 +4523,7 @@
       <c r="D56" s="128" t="n"/>
       <c r="E56" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="57" s="125">
+    <row customHeight="1" ht="15.6" r="57" s="125">
       <c r="A57" t="inlineStr">
         <is>
           <t>PST Component Composition weight fraction</t>
@@ -4533,7 +4533,7 @@
       <c r="C57" s="128" t="n"/>
       <c r="E57" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="58" s="125">
+    <row customHeight="1" ht="15.6" r="58" s="125">
       <c r="A58" t="inlineStr">
         <is>
           <t>PST Component Composition volumn fraction</t>
@@ -4543,13 +4543,13 @@
       <c r="C58" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="59" s="125"/>
-    <row customHeight="1" ht="16" r="60" s="125">
+    <row customHeight="1" ht="15.6" r="60" s="125">
       <c r="A60" s="18" t="inlineStr">
         <is>
           <t>Surface Chemical Processing</t>
         </is>
       </c>
-      <c r="F60" s="165" t="inlineStr">
+      <c r="F60" s="166" t="inlineStr">
         <is>
           <t>Instruction:
 1. Copy and paste each key processing step from the toolbox, in order, and fill out relevant details.                                                                                                  2. Fill in the Description/Fixed Value column with non-numerical descriptions or numerical results (Fixed Value).</t>
@@ -4574,7 +4574,7 @@
       <c r="C63" s="160" t="n"/>
       <c r="D63" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="64" s="125" thickBot="1">
+    <row customHeight="1" ht="15" r="64" s="125" thickBot="1">
       <c r="A64" s="160" t="n"/>
       <c r="B64" s="160" t="n"/>
       <c r="C64" s="160" t="n"/>
@@ -4583,21 +4583,21 @@
       <c r="G64" s="157" t="n"/>
       <c r="H64" s="157" t="n"/>
     </row>
-    <row customHeight="1" ht="22" r="65" s="125" thickBot="1">
+    <row customHeight="1" ht="21.6" r="65" s="125" thickBot="1">
       <c r="A65" s="160" t="n"/>
       <c r="B65" s="160" t="n"/>
       <c r="C65" s="160" t="n"/>
       <c r="D65" s="160" t="n"/>
-      <c r="F65" s="172" t="inlineStr">
+      <c r="F65" s="173" t="inlineStr">
         <is>
           <t>TOOLBOX</t>
         </is>
       </c>
-      <c r="G65" s="173" t="n"/>
-      <c r="H65" s="173" t="n"/>
-      <c r="I65" s="174" t="n"/>
-    </row>
-    <row customHeight="1" ht="16" r="66" s="125" thickBot="1">
+      <c r="G65" s="174" t="n"/>
+      <c r="H65" s="174" t="n"/>
+      <c r="I65" s="175" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="66" s="125" thickBot="1">
       <c r="A66" s="160" t="n"/>
       <c r="B66" s="160" t="n"/>
       <c r="C66" s="160" t="n"/>
@@ -4611,7 +4611,7 @@
       <c r="H66" s="141" t="n"/>
       <c r="I66" s="140" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="67" s="125" thickTop="1">
+    <row customHeight="1" ht="16.2" r="67" s="125" thickTop="1">
       <c r="A67" s="160" t="n"/>
       <c r="B67" s="160" t="n"/>
       <c r="C67" s="160" t="n"/>
@@ -4663,7 +4663,7 @@
       <c r="G69" s="131" t="n"/>
       <c r="I69" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="70" s="125" thickBot="1">
+    <row customHeight="1" ht="15" r="70" s="125" thickBot="1">
       <c r="A70" s="160" t="n"/>
       <c r="B70" s="160" t="n"/>
       <c r="C70" s="160" t="n"/>
@@ -4677,7 +4677,7 @@
       <c r="H70" s="93" t="n"/>
       <c r="I70" s="91" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="71" s="125" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="15.6" r="71" s="125" thickBot="1" thickTop="1">
       <c r="A71" s="160" t="n"/>
       <c r="B71" s="160" t="n"/>
       <c r="C71" s="160" t="n"/>
@@ -4685,7 +4685,7 @@
       <c r="F71" s="138" t="n"/>
       <c r="I71" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="72" s="125" thickTop="1">
+    <row customHeight="1" ht="16.2" r="72" s="125" thickTop="1">
       <c r="A72" s="160" t="n"/>
       <c r="B72" s="160" t="n"/>
       <c r="C72" s="160" t="n"/>
@@ -4780,7 +4780,7 @@
       <c r="H77" s="160" t="n"/>
       <c r="I77" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="78" s="125" thickBot="1">
+    <row customHeight="1" ht="16.2" r="78" s="125" thickBot="1">
       <c r="A78" s="160" t="n"/>
       <c r="B78" s="160" t="n"/>
       <c r="C78" s="160" t="n"/>
@@ -4794,7 +4794,7 @@
       <c r="H78" s="99" t="n"/>
       <c r="I78" s="91" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="79" s="125" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="15.6" r="79" s="125" thickBot="1" thickTop="1">
       <c r="A79" s="160" t="n"/>
       <c r="B79" s="160" t="n"/>
       <c r="C79" s="160" t="n"/>
@@ -4804,7 +4804,7 @@
       <c r="H79" s="101" t="n"/>
       <c r="I79" s="96" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="80" s="125" thickTop="1">
+    <row customHeight="1" ht="16.2" r="80" s="125" thickTop="1">
       <c r="A80" s="160" t="n"/>
       <c r="B80" s="160" t="n"/>
       <c r="C80" s="160" t="n"/>
@@ -4830,7 +4830,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="81" s="125" thickBot="1">
+    <row customHeight="1" ht="15" r="81" s="125" thickBot="1">
       <c r="A81" s="160" t="n"/>
       <c r="B81" s="160" t="n"/>
       <c r="C81" s="160" t="n"/>
@@ -4844,7 +4844,7 @@
       <c r="H81" s="93" t="n"/>
       <c r="I81" s="104" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="82" s="125" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="16.8" r="82" s="125" thickBot="1" thickTop="1">
       <c r="A82" s="160" t="n"/>
       <c r="B82" s="160" t="n"/>
       <c r="C82" s="160" t="n"/>
@@ -4852,7 +4852,7 @@
       <c r="F82" s="80" t="n"/>
       <c r="I82" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="83" s="125" thickTop="1">
+    <row customHeight="1" ht="16.2" r="83" s="125" thickTop="1">
       <c r="A83" s="160" t="n"/>
       <c r="B83" s="160" t="n"/>
       <c r="C83" s="160" t="n"/>
@@ -4981,7 +4981,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="91" s="125" thickBot="1">
+    <row customHeight="1" ht="15" r="91" s="125" thickBot="1">
       <c r="A91" s="160" t="n"/>
       <c r="B91" s="160" t="n"/>
       <c r="C91" s="160" t="n"/>
@@ -4995,7 +4995,7 @@
       <c r="H91" s="93" t="n"/>
       <c r="I91" s="116" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="92" s="125" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="15.6" r="92" s="125" thickBot="1" thickTop="1">
       <c r="A92" s="160" t="n"/>
       <c r="B92" s="160" t="n"/>
       <c r="C92" s="160" t="n"/>
@@ -5005,7 +5005,7 @@
       <c r="H92" s="160" t="n"/>
       <c r="I92" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="93" s="125" thickTop="1">
+    <row customHeight="1" ht="16.2" r="93" s="125" thickTop="1">
       <c r="A93" s="160" t="n"/>
       <c r="B93" s="160" t="n"/>
       <c r="C93" s="160" t="n"/>
@@ -5019,7 +5019,7 @@
       <c r="H93" s="114" t="n"/>
       <c r="I93" s="115" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="94" s="125">
+    <row customHeight="1" ht="15.6" r="94" s="125">
       <c r="A94" s="160" t="n"/>
       <c r="B94" s="160" t="n"/>
       <c r="C94" s="160" t="n"/>
@@ -5196,7 +5196,7 @@
       <c r="H109" s="133" t="n"/>
       <c r="I109" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="110" s="125">
+    <row customHeight="1" ht="15.6" r="110" s="125">
       <c r="F110" s="80" t="inlineStr">
         <is>
           <t>Heating zone #</t>
@@ -5264,7 +5264,7 @@
       <c r="H116" s="130" t="n"/>
       <c r="I116" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="117" s="125">
+    <row customHeight="1" ht="15.6" r="117" s="125">
       <c r="F117" s="80" t="inlineStr">
         <is>
           <t>Output</t>
@@ -5470,7 +5470,7 @@
       <c r="H137" s="133" t="n"/>
       <c r="I137" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="138" s="125">
+    <row customHeight="1" ht="15.6" r="138" s="125">
       <c r="F138" s="80" t="inlineStr">
         <is>
           <t>Heating zone #</t>
@@ -5527,7 +5527,7 @@
       <c r="G143" s="131" t="n"/>
       <c r="I143" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="144" s="125">
+    <row customHeight="1" ht="15.6" r="144" s="125">
       <c r="F144" s="80" t="inlineStr">
         <is>
           <t>Output</t>
@@ -5606,7 +5606,7 @@
       <c r="H151" s="131" t="n"/>
       <c r="I151" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="152" s="125" thickBot="1">
+    <row customHeight="1" ht="15" r="152" s="125" thickBot="1">
       <c r="F152" s="107" t="inlineStr">
         <is>
           <t>Output - Residence time</t>
@@ -5616,11 +5616,11 @@
       <c r="H152" s="108" t="n"/>
       <c r="I152" s="91" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="153" s="125" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="15.6" r="153" s="125" thickBot="1" thickTop="1">
       <c r="F153" s="138" t="n"/>
       <c r="I153" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="154" s="125" thickTop="1">
+    <row customHeight="1" ht="16.2" r="154" s="125" thickTop="1">
       <c r="F154" s="117" t="inlineStr">
         <is>
           <t>Heating #</t>
@@ -5691,7 +5691,7 @@
       <c r="H159" s="160" t="n"/>
       <c r="I159" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="160" s="125" thickBot="1">
+    <row customHeight="1" ht="16.2" r="160" s="125" thickBot="1">
       <c r="F160" s="97" t="inlineStr">
         <is>
           <t>Heating - ambient condition</t>
@@ -5701,13 +5701,13 @@
       <c r="H160" s="99" t="n"/>
       <c r="I160" s="91" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="161" s="125" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="15.6" r="161" s="125" thickBot="1" thickTop="1">
       <c r="F161" s="139" t="n"/>
       <c r="G161" s="160" t="n"/>
       <c r="H161" s="160" t="n"/>
       <c r="I161" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="162" s="125" thickTop="1">
+    <row customHeight="1" ht="16.2" r="162" s="125" thickTop="1">
       <c r="F162" s="117" t="inlineStr">
         <is>
           <t>Drying/Evaporation #</t>
@@ -5778,7 +5778,7 @@
       <c r="H167" s="160" t="n"/>
       <c r="I167" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="168" s="125" thickBot="1">
+    <row customHeight="1" ht="16.2" r="168" s="125" thickBot="1">
       <c r="F168" s="97" t="inlineStr">
         <is>
           <t>Drying/Evaporation - ambient condition</t>
@@ -5788,12 +5788,12 @@
       <c r="H168" s="99" t="n"/>
       <c r="I168" s="91" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="169" s="125" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="15.6" r="169" s="125" thickBot="1" thickTop="1">
       <c r="F169" s="139" t="n"/>
       <c r="G169" s="160" t="n"/>
       <c r="I169" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="170" s="125" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="16.8" r="170" s="125" thickBot="1" thickTop="1">
       <c r="F170" s="102" t="inlineStr">
         <is>
           <t>Centrifugation #</t>
@@ -5803,11 +5803,11 @@
       <c r="H170" s="106" t="n"/>
       <c r="I170" s="96" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="171" s="125" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="16.8" r="171" s="125" thickBot="1" thickTop="1">
       <c r="F171" s="80" t="n"/>
       <c r="I171" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="172" s="125" thickTop="1">
+    <row customHeight="1" ht="16.2" r="172" s="125" thickTop="1">
       <c r="F172" s="117" t="inlineStr">
         <is>
           <t>Molding #</t>
@@ -5888,7 +5888,7 @@
       <c r="H178" s="160" t="n"/>
       <c r="I178" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="179" s="125" thickBot="1">
+    <row customHeight="1" ht="16.2" r="179" s="125" thickBot="1">
       <c r="F179" s="97" t="inlineStr">
         <is>
           <t>Molding - ambient condition</t>
@@ -5898,13 +5898,13 @@
       <c r="H179" s="99" t="n"/>
       <c r="I179" s="91" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="180" s="125" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="15.6" r="180" s="125" thickBot="1" thickTop="1">
       <c r="F180" s="139" t="n"/>
       <c r="G180" s="160" t="n"/>
       <c r="H180" s="160" t="n"/>
       <c r="I180" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="181" s="125" thickTop="1">
+    <row customHeight="1" ht="16.2" r="181" s="125" thickTop="1">
       <c r="F181" s="117" t="inlineStr">
         <is>
           <t>Curing #</t>
@@ -5975,7 +5975,7 @@
       <c r="H186" s="160" t="n"/>
       <c r="I186" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="187" s="125" thickBot="1">
+    <row customHeight="1" ht="16.2" r="187" s="125" thickBot="1">
       <c r="F187" s="97" t="inlineStr">
         <is>
           <t>Curing - ambient condition</t>
@@ -5985,13 +5985,13 @@
       <c r="H187" s="99" t="n"/>
       <c r="I187" s="91" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="188" s="125" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="15.6" r="188" s="125" thickBot="1" thickTop="1">
       <c r="F188" s="139" t="n"/>
       <c r="G188" s="160" t="n"/>
       <c r="H188" s="160" t="n"/>
       <c r="I188" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="189" s="125" thickTop="1">
+    <row customHeight="1" ht="16.2" r="189" s="125" thickTop="1">
       <c r="F189" s="117" t="inlineStr">
         <is>
           <t>Other #</t>
@@ -6013,7 +6013,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="190" s="125" thickBot="1">
+    <row customHeight="1" ht="15" r="190" s="125" thickBot="1">
       <c r="F190" s="143" t="inlineStr">
         <is>
           <t>Other - description</t>
@@ -6187,20 +6187,20 @@
   </sheetPr>
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0" zoomScale="84" zoomScaleNormal="100">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0" zoomScale="84" zoomScaleNormal="100">
+      <selection activeCell="B28" sqref="B28:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="125" width="32.5"/>
-    <col customWidth="1" max="2" min="2" style="125" width="30.1640625"/>
-    <col customWidth="1" max="3" min="3" style="125" width="23.83203125"/>
-    <col customWidth="1" max="4" min="4" style="125" width="24.83203125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="125" width="15.5"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="125" width="38.83203125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="125" width="22.83203125"/>
-    <col customWidth="1" max="8" min="8" style="125" width="17.1640625"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="125" width="32.44140625"/>
+    <col customWidth="1" max="2" min="2" style="125" width="30.109375"/>
+    <col customWidth="1" max="3" min="3" style="125" width="23.77734375"/>
+    <col customWidth="1" max="4" min="4" style="125" width="24.77734375"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="125" width="15.44140625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="125" width="38.77734375"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="125" width="22.77734375"/>
+    <col customWidth="1" max="8" min="8" style="125" width="17.109375"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="21" r="1" s="125">
@@ -6222,7 +6222,7 @@
       <c r="I1" s="155" t="n"/>
     </row>
     <row customHeight="1" ht="112.5" r="2" s="125">
-      <c r="A2" s="170" t="inlineStr">
+      <c r="A2" s="171" t="inlineStr">
         <is>
           <t>Instruction:
 1. Fill in the experimental procedure to describe your processing in detail;
@@ -6235,7 +6235,7 @@
       <c r="H2" s="160" t="n"/>
       <c r="I2" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="3" s="125">
+    <row customHeight="1" ht="15.6" r="3" s="125">
       <c r="A3" s="21" t="inlineStr">
         <is>
           <t>Experimental Procedure</t>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="B3" s="131" t="n"/>
       <c r="C3" s="46" t="n"/>
-      <c r="F3" s="166" t="inlineStr">
+      <c r="F3" s="167" t="inlineStr">
         <is>
           <t>Pick a processing method for the step first</t>
         </is>
@@ -6251,7 +6251,7 @@
       <c r="H3" s="160" t="n"/>
       <c r="I3" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="4" s="125">
+    <row customHeight="1" ht="15.6" r="4" s="125">
       <c r="F4" s="64" t="inlineStr">
         <is>
           <t>Processing method</t>
@@ -6261,7 +6261,7 @@
       <c r="H4" s="160" t="n"/>
       <c r="I4" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="5" s="125" thickBot="1">
+    <row customHeight="1" ht="16.2" r="5" s="125" thickBot="1">
       <c r="A5" s="21" t="inlineStr">
         <is>
           <t>Processing method #</t>
@@ -6272,7 +6272,7 @@
           <t>In-SituPolymerization</t>
         </is>
       </c>
-      <c r="F5" s="168" t="inlineStr">
+      <c r="F5" s="169" t="inlineStr">
         <is>
           <t>Then pick a segment to describe the step</t>
         </is>
@@ -6281,7 +6281,7 @@
       <c r="H5" s="99" t="n"/>
       <c r="I5" s="91" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="6" s="125" thickTop="1">
+    <row customHeight="1" ht="16.2" r="6" s="125" thickTop="1">
       <c r="A6" s="50" t="n"/>
       <c r="F6" s="80" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="7" s="125">
+    <row customHeight="1" ht="15.6" r="7" s="125">
       <c r="A7" s="80" t="inlineStr">
         <is>
           <t>Mixing #</t>
@@ -6353,7 +6353,7 @@
       <c r="G8" s="131" t="n"/>
       <c r="I8" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="9" s="125" thickBot="1">
+    <row customHeight="1" ht="15" r="9" s="125" thickBot="1">
       <c r="A9" s="138" t="inlineStr">
         <is>
           <t>Mixing - mixer</t>
@@ -6374,7 +6374,7 @@
       <c r="H9" s="93" t="n"/>
       <c r="I9" s="91" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="10" s="125" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="15.6" r="10" s="125" thickBot="1" thickTop="1">
       <c r="A10" s="138" t="inlineStr">
         <is>
           <t>Mixing - method</t>
@@ -6391,7 +6391,7 @@
       <c r="H10" s="101" t="n"/>
       <c r="I10" s="96" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="11" s="125" thickTop="1">
+    <row customHeight="1" ht="16.2" r="11" s="125" thickTop="1">
       <c r="A11" s="138" t="inlineStr">
         <is>
           <t>Mixing - RPM</t>
@@ -6482,7 +6482,7 @@
       <c r="H14" s="130" t="n"/>
       <c r="I14" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="15" s="125" thickBot="1">
+    <row customHeight="1" ht="15" r="15" s="125" thickBot="1">
       <c r="A15" s="107" t="inlineStr">
         <is>
           <t>Mixing - chemical used #</t>
@@ -6500,7 +6500,7 @@
       <c r="H15" s="130" t="n"/>
       <c r="I15" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="16" s="125" thickTop="1">
+    <row customHeight="1" ht="15" r="16" s="125" thickTop="1">
       <c r="D16" s="160" t="n"/>
       <c r="F16" s="139" t="n"/>
       <c r="G16" s="132" t="inlineStr">
@@ -6511,7 +6511,7 @@
       <c r="H16" s="160" t="n"/>
       <c r="I16" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="17" s="125" thickBot="1">
+    <row customHeight="1" ht="16.2" r="17" s="125" thickBot="1">
       <c r="A17" s="80" t="inlineStr">
         <is>
           <t>Additive #</t>
@@ -6541,7 +6541,7 @@
       <c r="H17" s="99" t="n"/>
       <c r="I17" s="91" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="18" s="125" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="15.6" r="18" s="125" thickBot="1" thickTop="1">
       <c r="A18" s="138" t="inlineStr">
         <is>
           <t>Additive - description</t>
@@ -6558,7 +6558,7 @@
       <c r="H18" s="101" t="n"/>
       <c r="I18" s="96" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="19" s="125" thickTop="1">
+    <row customHeight="1" ht="16.2" r="19" s="125" thickTop="1">
       <c r="A19" s="138" t="inlineStr">
         <is>
           <t>Additive - additive</t>
@@ -6591,7 +6591,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="20" s="125" thickBot="1">
+    <row customHeight="1" ht="15" r="20" s="125" thickBot="1">
       <c r="A20" s="107" t="inlineStr">
         <is>
           <t>Additive - amount</t>
@@ -6615,14 +6615,14 @@
       <c r="H20" s="93" t="n"/>
       <c r="I20" s="104" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="21" s="125" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="16.8" r="21" s="125" thickBot="1" thickTop="1">
       <c r="D21" s="160" t="n"/>
       <c r="F21" s="102" t="n"/>
       <c r="G21" s="101" t="n"/>
       <c r="H21" s="101" t="n"/>
       <c r="I21" s="96" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="22" s="125" thickTop="1">
+    <row customHeight="1" ht="16.2" r="22" s="125" thickTop="1">
       <c r="A22" s="80" t="inlineStr">
         <is>
           <t>Additive #</t>
@@ -6704,7 +6704,7 @@
       <c r="G24" s="131" t="n"/>
       <c r="I24" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="25" s="125" thickBot="1">
+    <row customHeight="1" ht="15" r="25" s="125" thickBot="1">
       <c r="A25" s="107" t="inlineStr">
         <is>
           <t>Additive - amount</t>
@@ -6727,7 +6727,7 @@
       <c r="G25" s="133" t="n"/>
       <c r="I25" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="26" s="125" thickTop="1">
+    <row customHeight="1" ht="15" r="26" s="125" thickTop="1">
       <c r="D26" s="160" t="n"/>
       <c r="F26" s="138" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
       <c r="H26" s="131" t="n"/>
       <c r="I26" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="27" s="125">
+    <row customHeight="1" ht="15.6" r="27" s="125">
       <c r="A27" s="80" t="inlineStr">
         <is>
           <t>Heating #</t>
@@ -6776,7 +6776,7 @@
       </c>
       <c r="B28" s="131" t="inlineStr">
         <is>
-          <t>mixture was then heated to 250°C under anitrogen atmosphere for the esterication phase.</t>
+          <t>mixture was then heated to 250°C under anitrogen atmosphere for the esterification phase.</t>
         </is>
       </c>
       <c r="D28" s="136" t="n"/>
@@ -6822,7 +6822,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="30" s="125" thickBot="1">
+    <row customHeight="1" ht="15" r="30" s="125" thickBot="1">
       <c r="A30" s="138" t="inlineStr">
         <is>
           <t>Heating - time</t>
@@ -6841,7 +6841,7 @@
       <c r="H30" s="93" t="n"/>
       <c r="I30" s="104" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="31" s="125" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="15.6" r="31" s="125" thickBot="1" thickTop="1">
       <c r="A31" s="138" t="inlineStr">
         <is>
           <t>Heating - pressure</t>
@@ -6855,7 +6855,7 @@
       <c r="H31" s="106" t="n"/>
       <c r="I31" s="96" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="32" s="125" thickTop="1">
+    <row customHeight="1" ht="16.2" r="32" s="125" thickTop="1">
       <c r="A32" s="139" t="n"/>
       <c r="B32" s="132" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="I32" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="33" s="125" thickBot="1">
+    <row customHeight="1" ht="16.2" r="33" s="125" thickBot="1">
       <c r="A33" s="97" t="inlineStr">
         <is>
           <t>Heating - ambient condition</t>
@@ -6887,7 +6887,7 @@
       <c r="F33" s="80" t="n"/>
       <c r="I33" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="34" s="125" thickTop="1">
+    <row customHeight="1" ht="16.2" r="34" s="125" thickTop="1">
       <c r="A34" s="50" t="n"/>
       <c r="D34" s="160" t="n"/>
       <c r="F34" s="78" t="inlineStr">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="35" s="125">
+    <row customHeight="1" ht="15.6" r="35" s="125">
       <c r="A35" s="80" t="inlineStr">
         <is>
           <t>Heating #</t>
@@ -6943,7 +6943,7 @@
       </c>
       <c r="B36" s="131" t="inlineStr">
         <is>
-          <t>temperature was raised to 280_x000E_C in the polycondensationreactor under vacuum to form a high molecular weight polyester</t>
+          <t>temperature was raised to 280°C in the polycondensationreactor under vacuum to form a high molecular weight polyester</t>
         </is>
       </c>
       <c r="D36" s="136" t="n"/>
@@ -7033,7 +7033,7 @@
       <c r="H40" s="133" t="n"/>
       <c r="I40" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="41" s="125" thickBot="1">
+    <row customHeight="1" ht="16.2" r="41" s="125" thickBot="1">
       <c r="A41" s="97" t="inlineStr">
         <is>
           <t>Heating - ambient condition</t>
@@ -7055,7 +7055,7 @@
       <c r="H41" s="133" t="n"/>
       <c r="I41" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="42" s="125" thickTop="1">
+    <row customHeight="1" ht="15" r="42" s="125" thickTop="1">
       <c r="D42" s="160" t="n"/>
       <c r="F42" s="138" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
       <c r="G42" s="131" t="n"/>
       <c r="I42" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="43" s="125">
+    <row customHeight="1" ht="15.6" r="43" s="125">
       <c r="A43" s="80" t="inlineStr">
         <is>
           <t>Extrusion #</t>
@@ -7081,7 +7081,7 @@
       <c r="H43" s="131" t="n"/>
       <c r="I43" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="44" s="125">
+    <row customHeight="1" ht="15.6" r="44" s="125">
       <c r="A44" s="80" t="n"/>
       <c r="D44" s="136" t="n"/>
       <c r="F44" s="138" t="inlineStr">
@@ -7173,7 +7173,7 @@
       <c r="H48" s="133" t="n"/>
       <c r="I48" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="49" s="125">
+    <row customHeight="1" ht="15.6" r="49" s="125">
       <c r="A49" s="138" t="inlineStr">
         <is>
           <t>Extrusion temperature</t>
@@ -7296,7 +7296,7 @@
       <c r="H55" s="130" t="n"/>
       <c r="I55" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="56" s="125">
+    <row customHeight="1" ht="15.6" r="56" s="125">
       <c r="A56" s="138" t="inlineStr">
         <is>
           <t>Channel depth</t>
@@ -7366,7 +7366,7 @@
       <c r="H59" s="131" t="n"/>
       <c r="I59" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="60" s="125">
+    <row customHeight="1" ht="15.6" r="60" s="125">
       <c r="A60" s="80" t="inlineStr">
         <is>
           <t>Heating zone #</t>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="67" s="125">
+    <row customHeight="1" ht="15.6" r="67" s="125">
       <c r="A67" s="80" t="inlineStr">
         <is>
           <t>Output</t>
@@ -7648,7 +7648,7 @@
       <c r="H75" s="131" t="n"/>
       <c r="I75" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="76" s="125" thickBot="1">
+    <row customHeight="1" ht="15" r="76" s="125" thickBot="1">
       <c r="A76" s="138" t="n"/>
       <c r="D76" s="136" t="n"/>
       <c r="E76" s="37" t="n"/>
@@ -7661,7 +7661,7 @@
       <c r="H76" s="133" t="n"/>
       <c r="I76" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="77" s="125" thickTop="1">
+    <row customHeight="1" ht="16.2" r="77" s="125" thickTop="1">
       <c r="A77" s="117" t="inlineStr">
         <is>
           <t>Other #</t>
@@ -7691,7 +7691,7 @@
       <c r="G77" s="68" t="n"/>
       <c r="I77" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="78" s="125" thickBot="1">
+    <row customHeight="1" ht="15" r="78" s="125" thickBot="1">
       <c r="A78" s="143" t="inlineStr">
         <is>
           <t>Other - description</t>
@@ -7755,7 +7755,7 @@
       <c r="G82" s="131" t="n"/>
       <c r="I82" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="83" s="125">
+    <row customHeight="1" ht="15.6" r="83" s="125">
       <c r="D83" s="160" t="n"/>
       <c r="F83" s="80" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
       <c r="H90" s="131" t="n"/>
       <c r="I90" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="91" s="125" thickBot="1">
+    <row customHeight="1" ht="16.2" r="91" s="125" thickBot="1">
       <c r="D91" s="160" t="n"/>
       <c r="E91" s="50" t="n"/>
       <c r="F91" s="107" t="inlineStr">
@@ -7854,14 +7854,14 @@
       <c r="H91" s="108" t="n"/>
       <c r="I91" s="91" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="92" s="125" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="15.6" r="92" s="125" thickBot="1" thickTop="1">
       <c r="D92" s="160" t="n"/>
       <c r="F92" s="109" t="n"/>
       <c r="G92" s="101" t="n"/>
       <c r="H92" s="101" t="n"/>
       <c r="I92" s="96" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="93" s="125" thickTop="1">
+    <row customHeight="1" ht="16.2" r="93" s="125" thickTop="1">
       <c r="D93" s="160" t="n"/>
       <c r="F93" s="80" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
       <c r="H97" s="130" t="n"/>
       <c r="I97" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="98" s="125">
+    <row customHeight="1" ht="15.6" r="98" s="125">
       <c r="D98" s="160" t="n"/>
       <c r="E98" s="50" t="n"/>
       <c r="F98" s="139" t="n"/>
@@ -7939,7 +7939,7 @@
       <c r="H98" s="160" t="n"/>
       <c r="I98" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="99" s="125" thickBot="1">
+    <row customHeight="1" ht="16.2" r="99" s="125" thickBot="1">
       <c r="D99" s="160" t="n"/>
       <c r="F99" s="97" t="inlineStr">
         <is>
@@ -7950,14 +7950,14 @@
       <c r="H99" s="99" t="n"/>
       <c r="I99" s="91" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="100" s="125" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="15.6" r="100" s="125" thickBot="1" thickTop="1">
       <c r="D100" s="160" t="n"/>
       <c r="F100" s="105" t="n"/>
       <c r="G100" s="106" t="n"/>
       <c r="H100" s="106" t="n"/>
       <c r="I100" s="96" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="101" s="125" thickTop="1">
+    <row customHeight="1" ht="16.2" r="101" s="125" thickTop="1">
       <c r="D101" s="160" t="n"/>
       <c r="F101" s="80" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
       <c r="H106" s="160" t="n"/>
       <c r="I106" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="107" s="125" thickBot="1">
+    <row customHeight="1" ht="16.2" r="107" s="125" thickBot="1">
       <c r="D107" s="160" t="n"/>
       <c r="F107" s="97" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
       <c r="H107" s="99" t="n"/>
       <c r="I107" s="91" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="108" s="125" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="16.8" r="108" s="125" thickBot="1" thickTop="1">
       <c r="A108" s="50" t="n"/>
       <c r="D108" s="160" t="n"/>
       <c r="F108" s="105" t="n"/>
@@ -8053,7 +8053,7 @@
       <c r="H108" s="101" t="n"/>
       <c r="I108" s="96" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="109" s="125" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="16.8" r="109" s="125" thickBot="1" thickTop="1">
       <c r="D109" s="160" t="n"/>
       <c r="F109" s="102" t="inlineStr">
         <is>
@@ -8064,13 +8064,13 @@
       <c r="H109" s="106" t="n"/>
       <c r="I109" s="96" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="110" s="125" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="16.8" r="110" s="125" thickBot="1" thickTop="1">
       <c r="A110" s="50" t="n"/>
       <c r="D110" s="160" t="n"/>
       <c r="F110" s="80" t="n"/>
       <c r="I110" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="111" s="125" thickTop="1">
+    <row customHeight="1" ht="16.2" r="111" s="125" thickTop="1">
       <c r="A111" s="50" t="n"/>
       <c r="D111" s="160" t="n"/>
       <c r="F111" s="117" t="inlineStr">
@@ -8094,7 +8094,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="112" s="125">
+    <row customHeight="1" ht="15.6" r="112" s="125">
       <c r="A112" s="50" t="n"/>
       <c r="D112" s="160" t="n"/>
       <c r="F112" s="138" t="inlineStr">
@@ -8165,7 +8165,7 @@
       <c r="H117" s="160" t="n"/>
       <c r="I117" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="118" s="125" thickBot="1">
+    <row customHeight="1" ht="16.2" r="118" s="125" thickBot="1">
       <c r="A118" s="160" t="n"/>
       <c r="D118" s="160" t="n"/>
       <c r="F118" s="97" t="inlineStr">
@@ -8177,7 +8177,7 @@
       <c r="H118" s="99" t="n"/>
       <c r="I118" s="91" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="119" s="125" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="16.8" r="119" s="125" thickBot="1" thickTop="1">
       <c r="A119" s="50" t="n"/>
       <c r="D119" s="160" t="n"/>
       <c r="F119" s="139" t="n"/>
@@ -8185,7 +8185,7 @@
       <c r="H119" s="160" t="n"/>
       <c r="I119" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="120" s="125" thickTop="1">
+    <row customHeight="1" ht="16.2" r="120" s="125" thickTop="1">
       <c r="A120" s="160" t="n"/>
       <c r="D120" s="160" t="n"/>
       <c r="F120" s="117" t="inlineStr">
@@ -8209,7 +8209,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="121" s="125">
+    <row customHeight="1" ht="15.6" r="121" s="125">
       <c r="A121" s="50" t="n"/>
       <c r="D121" s="160" t="n"/>
       <c r="F121" s="138" t="inlineStr">
@@ -8270,7 +8270,7 @@
       <c r="H125" s="160" t="n"/>
       <c r="I125" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="126" s="125" thickBot="1">
+    <row customHeight="1" ht="16.2" r="126" s="125" thickBot="1">
       <c r="D126" s="160" t="n"/>
       <c r="E126" s="160" t="n"/>
       <c r="F126" s="97" t="inlineStr">
@@ -8282,7 +8282,7 @@
       <c r="H126" s="99" t="n"/>
       <c r="I126" s="91" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="127" s="125" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="15.6" r="127" s="125" thickBot="1" thickTop="1">
       <c r="D127" s="160" t="n"/>
       <c r="E127" s="160" t="n"/>
       <c r="F127" s="139" t="n"/>
@@ -8290,7 +8290,7 @@
       <c r="H127" s="160" t="n"/>
       <c r="I127" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="128" s="125" thickTop="1">
+    <row customHeight="1" ht="16.2" r="128" s="125" thickTop="1">
       <c r="D128" s="160" t="n"/>
       <c r="E128" s="160" t="n"/>
       <c r="F128" s="117" t="inlineStr">
@@ -8314,7 +8314,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="129" s="125" thickBot="1">
+    <row customHeight="1" ht="15" r="129" s="125" thickBot="1">
       <c r="D129" s="160" t="n"/>
       <c r="E129" s="160" t="n"/>
       <c r="F129" s="143" t="inlineStr">
@@ -8401,16 +8401,16 @@
       <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="125" width="55.1640625"/>
-    <col customWidth="1" max="2" min="2" style="125" width="19.1640625"/>
-    <col customWidth="1" max="3" min="3" style="125" width="16.1640625"/>
+    <col customWidth="1" max="1" min="1" style="125" width="55.109375"/>
+    <col customWidth="1" max="2" min="2" style="125" width="19.109375"/>
+    <col customWidth="1" max="3" min="3" style="125" width="16.109375"/>
     <col customWidth="1" max="4" min="4" style="125" width="15"/>
-    <col customWidth="1" max="5" min="5" style="125" width="18.5"/>
-    <col customWidth="1" max="6" min="6" style="125" width="17.83203125"/>
-    <col customWidth="1" max="7" min="7" style="125" width="21.83203125"/>
-    <col customWidth="1" max="8" min="8" style="125" width="26.1640625"/>
+    <col customWidth="1" max="5" min="5" style="125" width="18.44140625"/>
+    <col customWidth="1" max="6" min="6" style="125" width="17.77734375"/>
+    <col customWidth="1" max="7" min="7" style="125" width="21.77734375"/>
+    <col customWidth="1" max="8" min="8" style="125" width="26.109375"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="21" r="1" s="125">
@@ -8427,8 +8427,8 @@
       <c r="G1" s="43" t="n"/>
       <c r="H1" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="2" s="125">
-      <c r="A2" s="175" t="inlineStr">
+    <row customHeight="1" ht="15.6" r="2" s="125">
+      <c r="A2" s="176" t="inlineStr">
         <is>
           <t>Instructions: Enter relevant details of characterization methods in appropriate boxes below. Leave other boxes blank. NOTE that image file names are entered on another tab. NOTE that this template is customized for you; Additional sections for more information are available. If needed, please let us know.
 Please see tab 7 for micro-image uploading.</t>
@@ -8449,7 +8449,7 @@
       <c r="G3" s="160" t="n"/>
       <c r="H3" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="4" s="125">
+    <row customHeight="1" ht="15.6" r="4" s="125">
       <c r="A4" s="21" t="inlineStr">
         <is>
           <t>Microscopy</t>
@@ -8463,7 +8463,7 @@
       <c r="G4" s="160" t="n"/>
       <c r="H4" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="5" s="125">
+    <row customHeight="1" ht="15.6" r="5" s="125">
       <c r="A5" s="50" t="inlineStr">
         <is>
           <t>Transmission electron microscopy</t>
@@ -8603,7 +8603,7 @@
       <c r="G12" s="131" t="n"/>
       <c r="H12" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="13" s="125">
+    <row customHeight="1" ht="15.6" r="13" s="125">
       <c r="A13" s="32" t="n"/>
       <c r="B13" s="160" t="n"/>
       <c r="C13" s="160" t="n"/>
@@ -8613,7 +8613,7 @@
       <c r="G13" s="160" t="n"/>
       <c r="H13" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="14" s="125">
+    <row customHeight="1" ht="15.6" r="14" s="125">
       <c r="A14" s="50" t="inlineStr">
         <is>
           <t>Scanning electron microscopy</t>
@@ -8762,7 +8762,7 @@
       <c r="G22" s="160" t="n"/>
       <c r="H22" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="23" s="125">
+    <row customHeight="1" ht="15.6" r="23" s="125">
       <c r="A23" s="50" t="inlineStr">
         <is>
           <t>Atomic force microscopy</t>
@@ -8855,7 +8855,7 @@
       <c r="G27" s="160" t="n"/>
       <c r="H27" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="28" s="125">
+    <row customHeight="1" ht="15.6" r="28" s="125">
       <c r="A28" s="50" t="inlineStr">
         <is>
           <t>Optical microscopy</t>
@@ -8948,7 +8948,7 @@
       <c r="G32" s="160" t="n"/>
       <c r="H32" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="33" s="125">
+    <row customHeight="1" ht="15.6" r="33" s="125">
       <c r="A33" s="21" t="inlineStr">
         <is>
           <t>Spectroscopy</t>
@@ -8962,7 +8962,7 @@
       <c r="G33" s="160" t="n"/>
       <c r="H33" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="34" s="125">
+    <row customHeight="1" ht="15.6" r="34" s="125">
       <c r="A34" s="50" t="inlineStr">
         <is>
           <t>Fourier transform infrared spectroscopy</t>
@@ -9055,7 +9055,7 @@
       <c r="G38" s="160" t="n"/>
       <c r="H38" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="39" s="125">
+    <row customHeight="1" ht="15.6" r="39" s="125">
       <c r="A39" s="50" t="inlineStr">
         <is>
           <t>Dielectric and impedance spectroscopy analysis</t>
@@ -9148,7 +9148,7 @@
       <c r="G43" s="160" t="n"/>
       <c r="H43" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="44" s="125">
+    <row customHeight="1" ht="15.6" r="44" s="125">
       <c r="A44" s="50" t="inlineStr">
         <is>
           <t>Raman spectroscopy</t>
@@ -9241,7 +9241,7 @@
       <c r="G48" s="160" t="n"/>
       <c r="H48" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="49" s="125">
+    <row customHeight="1" ht="15.6" r="49" s="125">
       <c r="A49" s="50" t="inlineStr">
         <is>
           <t>Xray photoelectron spectroscopy</t>
@@ -9328,7 +9328,7 @@
     <row r="53">
       <c r="H53" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="54" s="125">
+    <row customHeight="1" ht="15.6" r="54" s="125">
       <c r="A54" s="50" t="inlineStr">
         <is>
           <t>Nuclear magnetic resonance</t>
@@ -9421,7 +9421,7 @@
       <c r="G58" s="160" t="n"/>
       <c r="H58" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="59" s="125">
+    <row customHeight="1" ht="15.6" r="59" s="125">
       <c r="A59" s="21" t="inlineStr">
         <is>
           <t>Thermochemical</t>
@@ -9435,7 +9435,7 @@
       <c r="G59" s="160" t="n"/>
       <c r="H59" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="60" s="125">
+    <row customHeight="1" ht="15.6" r="60" s="125">
       <c r="A60" s="50" t="inlineStr">
         <is>
           <t>Differential scanning calorimetry</t>
@@ -9588,7 +9588,7 @@
       <c r="G67" s="160" t="n"/>
       <c r="H67" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="68" s="125">
+    <row customHeight="1" ht="15.6" r="68" s="125">
       <c r="A68" s="50" t="inlineStr">
         <is>
           <t>Thermogravimetric analysis</t>
@@ -9681,7 +9681,7 @@
       <c r="G72" s="160" t="n"/>
       <c r="H72" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="73" s="125">
+    <row customHeight="1" ht="15.6" r="73" s="125">
       <c r="A73" s="50" t="inlineStr">
         <is>
           <t>Dynamic mechanical analysis</t>
@@ -9782,7 +9782,7 @@
       <c r="G77" s="160" t="n"/>
       <c r="H77" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="78" s="125">
+    <row customHeight="1" ht="15.6" r="78" s="125">
       <c r="A78" s="21" t="inlineStr">
         <is>
           <t>Scattering and diffraction</t>
@@ -9796,7 +9796,7 @@
       <c r="G78" s="160" t="n"/>
       <c r="H78" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="79" s="125">
+    <row customHeight="1" ht="15.6" r="79" s="125">
       <c r="A79" s="50" t="inlineStr">
         <is>
           <t>Xray diffraction and scattering</t>
@@ -9889,7 +9889,7 @@
       <c r="G83" s="160" t="n"/>
       <c r="H83" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="84" s="125">
+    <row customHeight="1" ht="15.6" r="84" s="125">
       <c r="A84" s="21" t="inlineStr">
         <is>
           <t>Others</t>
@@ -9903,7 +9903,7 @@
       <c r="G84" s="160" t="n"/>
       <c r="H84" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="85" s="125">
+    <row customHeight="1" ht="15.6" r="85" s="125">
       <c r="A85" s="50" t="inlineStr">
         <is>
           <t>Pulsed electro acoustic</t>
@@ -9996,7 +9996,7 @@
       <c r="G89" s="160" t="n"/>
       <c r="H89" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="90" s="125">
+    <row customHeight="1" ht="15.6" r="90" s="125">
       <c r="A90" s="50" t="inlineStr">
         <is>
           <t>Rheometry</t>
@@ -10103,7 +10103,7 @@
       <c r="G95" s="160" t="n"/>
       <c r="H95" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="96" s="125">
+    <row customHeight="1" ht="15.6" r="96" s="125">
       <c r="A96" s="50" t="inlineStr">
         <is>
           <t>Electrometry</t>
@@ -10207,17 +10207,17 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="125" width="28.83203125"/>
-    <col customWidth="1" max="2" min="2" style="125" width="32.5"/>
-    <col customWidth="1" max="3" min="3" style="125" width="14.83203125"/>
-    <col customWidth="1" max="4" min="4" style="125" width="12.1640625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="125" width="16.1640625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="125" width="17.1640625"/>
-    <col customWidth="1" max="7" min="7" style="125" width="17.5"/>
-    <col customWidth="1" max="8" min="8" style="125" width="36.1640625"/>
-    <col customWidth="1" max="9" min="9" style="125" width="24.83203125"/>
+    <col customWidth="1" max="1" min="1" style="125" width="28.77734375"/>
+    <col customWidth="1" max="2" min="2" style="125" width="32.44140625"/>
+    <col customWidth="1" max="3" min="3" style="125" width="14.77734375"/>
+    <col customWidth="1" max="4" min="4" style="125" width="12.109375"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="125" width="16.109375"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="125" width="17.109375"/>
+    <col customWidth="1" max="7" min="7" style="125" width="17.44140625"/>
+    <col customWidth="1" max="8" min="8" style="125" width="36.109375"/>
+    <col customWidth="1" max="9" min="9" style="125" width="24.77734375"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="21" r="1" s="125">
@@ -10232,20 +10232,20 @@
       <c r="E1" s="132" t="n"/>
     </row>
     <row customHeight="1" ht="48" r="2" s="125">
-      <c r="A2" s="175" t="inlineStr">
+      <c r="A2" s="176" t="inlineStr">
         <is>
           <t>Instructions: If only a single value and unit, then fill in the fixed value and unit; otherwise, if data is distributed, please save the results in an excel file and enter the excel filename under the column of "Datafile".</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="4" s="125">
+    <row customHeight="1" ht="15.6" r="4" s="125">
       <c r="A4" s="21" t="inlineStr">
         <is>
           <t>Mechanical</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="5" s="125">
+    <row customHeight="1" ht="15.6" r="5" s="125">
       <c r="A5" s="129" t="inlineStr">
         <is>
           <t>Tensile</t>
@@ -10480,7 +10480,7 @@
       </c>
       <c r="B21" s="131" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="23" s="125">
+    <row customHeight="1" ht="15.6" r="23" s="125">
       <c r="A23" s="129" t="inlineStr">
         <is>
           <t>Flexural</t>
@@ -10608,7 +10608,7 @@
       </c>
       <c r="B30" s="131" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="32" s="125">
+    <row customHeight="1" ht="15.6" r="32" s="125">
       <c r="A32" s="129" t="inlineStr">
         <is>
           <t>Compression</t>
@@ -10701,7 +10701,7 @@
       </c>
       <c r="B39" s="131" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="41" s="125">
+    <row customHeight="1" ht="15.6" r="41" s="125">
       <c r="A41" s="129" t="inlineStr">
         <is>
           <t>Shear</t>
@@ -10816,10 +10816,10 @@
       </c>
       <c r="B47" s="131" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="48" s="125">
+    <row customHeight="1" ht="15.6" r="48" s="125">
       <c r="A48" s="129" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="49" s="125">
+    <row customHeight="1" ht="15.6" r="49" s="125">
       <c r="A49" s="129" t="inlineStr">
         <is>
           <t>Fracture</t>
@@ -11102,7 +11102,7 @@
       </c>
       <c r="B69" s="131" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="71" s="125">
+    <row customHeight="1" ht="15.6" r="71" s="125">
       <c r="A71" s="129" t="inlineStr">
         <is>
           <t>Impact</t>
@@ -11204,7 +11204,7 @@
       <c r="F76" s="131" t="n"/>
       <c r="G76" s="131" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="78" s="125">
+    <row customHeight="1" ht="15.6" r="78" s="125">
       <c r="A78" s="129" t="inlineStr">
         <is>
           <t>Hardness</t>
@@ -11306,15 +11306,15 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="125" width="42"/>
-    <col customWidth="1" max="2" min="2" style="125" width="14.1640625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="125" width="15.5"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="125" width="16.1640625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="125" width="15.5"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="125" width="16.1640625"/>
-    <col customWidth="1" max="7" min="7" style="125" width="17.1640625"/>
+    <col customWidth="1" max="2" min="2" style="125" width="14.109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="125" width="15.44140625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="125" width="16.109375"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="125" width="15.44140625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="125" width="16.109375"/>
+    <col customWidth="1" max="7" min="7" style="125" width="17.109375"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="21" r="1" s="125">
@@ -11329,20 +11329,20 @@
       <c r="E1" s="132" t="n"/>
     </row>
     <row customHeight="1" ht="48.75" r="2" s="125">
-      <c r="A2" s="175" t="inlineStr">
+      <c r="A2" s="176" t="inlineStr">
         <is>
           <t>Instructions: If only a single value and unit, then fill in the fixed value and unit; otherwise, if data is distributed, please save the results in an excel file and enter the excel filename under the column of "Datafile".</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="4" s="125">
+    <row customHeight="1" ht="15.6" r="4" s="125">
       <c r="A4" s="21" t="inlineStr">
         <is>
           <t>Viscoelastic</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="5" s="125">
+    <row customHeight="1" ht="15.6" r="5" s="125">
       <c r="A5" s="129" t="inlineStr">
         <is>
           <t>Dynamic properties</t>
@@ -11484,7 +11484,7 @@
       <c r="B21" s="131" t="n"/>
       <c r="C21" s="131" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="25" s="125">
+    <row customHeight="1" ht="15.6" r="25" s="125">
       <c r="A25" s="129" t="inlineStr">
         <is>
           <t>Creep</t>
@@ -11785,14 +11785,14 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="125" width="42"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="125" width="20.1640625"/>
-    <col customWidth="1" max="3" min="3" style="125" width="20.1640625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="125" width="20.1640625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="125" width="16.1640625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="125" width="24.1640625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="125" width="20.109375"/>
+    <col customWidth="1" max="3" min="3" style="125" width="20.109375"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="125" width="20.109375"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="125" width="16.109375"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="125" width="24.109375"/>
     <col customWidth="1" max="7" min="7" style="125" width="13"/>
   </cols>
   <sheetData>
@@ -11808,13 +11808,13 @@
       <c r="E1" s="132" t="n"/>
     </row>
     <row customHeight="1" ht="51" r="2" s="125">
-      <c r="A2" s="175" t="inlineStr">
+      <c r="A2" s="176" t="inlineStr">
         <is>
           <t>Instructions: If only a single value and unit, then fill in the fixed value and unit; otherwise, if data is distributed, please save the results in an excel file and enter the excel filename under the column of "Datafile".</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="4" s="125">
+    <row customHeight="1" ht="15.6" r="4" s="125">
       <c r="A4" s="21" t="inlineStr">
         <is>
           <t>Electrical</t>
@@ -12205,14 +12205,14 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="125" width="42"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="125" width="10.83203125"/>
-    <col customWidth="1" max="3" min="3" style="125" width="13.83203125"/>
-    <col customWidth="1" max="4" min="4" style="125" width="13.1640625"/>
-    <col customWidth="1" max="5" min="5" style="125" width="15.5"/>
-    <col customWidth="1" max="6" min="6" style="125" width="16.83203125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="125" width="10.77734375"/>
+    <col customWidth="1" max="3" min="3" style="125" width="13.77734375"/>
+    <col customWidth="1" max="4" min="4" style="125" width="13.109375"/>
+    <col customWidth="1" max="5" min="5" style="125" width="15.44140625"/>
+    <col customWidth="1" max="6" min="6" style="125" width="16.77734375"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="21" r="1" s="125">
@@ -12226,14 +12226,14 @@
       <c r="D1" s="132" t="n"/>
       <c r="E1" s="132" t="n"/>
     </row>
-    <row customHeight="1" ht="61.25" r="2" s="125">
-      <c r="A2" s="175" t="inlineStr">
+    <row customHeight="1" ht="61.2" r="2" s="125">
+      <c r="A2" s="176" t="inlineStr">
         <is>
           <t>Instructions: If only a single value and unit, then fill in the fixed value and unit; otherwise, if data is distributed, please save the results in an excel file and enter the excel filename under the column of "Datafile".</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="4" s="125">
+    <row customHeight="1" ht="15.6" r="4" s="125">
       <c r="A4" s="21" t="inlineStr">
         <is>
           <t>Thermal</t>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="6" s="125">
+    <row customHeight="1" ht="15.6" r="6" s="125">
       <c r="A6" s="129" t="inlineStr">
         <is>
           <t>DSC profile #</t>
@@ -12255,7 +12255,7 @@
       </c>
       <c r="B6" s="131" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="7" s="125">
+    <row customHeight="1" ht="15.6" r="7" s="125">
       <c r="A7" s="129" t="n"/>
     </row>
     <row r="8">
@@ -12295,7 +12295,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="9" s="125">
+    <row customHeight="1" ht="15.6" r="9" s="125">
       <c r="A9" s="129" t="inlineStr">
         <is>
           <t>Measurement Method</t>
@@ -12303,7 +12303,7 @@
       </c>
       <c r="B9" s="131" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="11" s="125">
+    <row customHeight="1" ht="15.6" r="11" s="125">
       <c r="A11" s="129" t="inlineStr">
         <is>
           <t>Crystallinity</t>
@@ -12406,7 +12406,7 @@
       <c r="F16" s="131" t="n"/>
       <c r="G16" s="131" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="18" s="125">
+    <row customHeight="1" ht="15.6" r="18" s="125">
       <c r="A18" s="129" t="inlineStr">
         <is>
           <t>Crystallization temperature</t>
@@ -12425,7 +12425,7 @@
       <c r="F18" s="131" t="n"/>
       <c r="G18" s="131" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="20" s="125">
+    <row customHeight="1" ht="15.6" r="20" s="125">
       <c r="A20" s="129" t="inlineStr">
         <is>
           <t>Heat of crystallization</t>
@@ -12438,7 +12438,7 @@
       <c r="F20" s="131" t="n"/>
       <c r="G20" s="131" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="22" s="125">
+    <row customHeight="1" ht="15.6" r="22" s="125">
       <c r="A22" s="129" t="inlineStr">
         <is>
           <t>Heat of fusion</t>
@@ -12451,7 +12451,7 @@
       <c r="F22" s="131" t="n"/>
       <c r="G22" s="131" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="24" s="125">
+    <row customHeight="1" ht="15.6" r="24" s="125">
       <c r="A24" s="129" t="inlineStr">
         <is>
           <t>Thermal decomposition temperature #</t>
@@ -12464,7 +12464,7 @@
       <c r="F24" s="131" t="n"/>
       <c r="G24" s="131" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="26" s="125">
+    <row customHeight="1" ht="15.6" r="26" s="125">
       <c r="A26" s="129" t="inlineStr">
         <is>
           <t>Glass transition temperature #</t>
@@ -12483,7 +12483,7 @@
       <c r="F26" s="131" t="n"/>
       <c r="G26" s="131" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="28" s="125">
+    <row customHeight="1" ht="15.6" r="28" s="125">
       <c r="A28" s="129" t="inlineStr">
         <is>
           <t>LC phase transition temperature</t>
@@ -12496,10 +12496,10 @@
       <c r="F28" s="131" t="n"/>
       <c r="G28" s="131" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="29" s="125">
+    <row customHeight="1" ht="15.6" r="29" s="125">
       <c r="A29" s="129" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="30" s="125">
+    <row customHeight="1" ht="15.6" r="30" s="125">
       <c r="A30" s="129" t="inlineStr">
         <is>
           <t>Melting temperature</t>
@@ -12518,10 +12518,10 @@
       <c r="F30" s="131" t="n"/>
       <c r="G30" s="131" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="31" s="125">
+    <row customHeight="1" ht="15.6" r="31" s="125">
       <c r="A31" s="129" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="32" s="125">
+    <row customHeight="1" ht="15.6" r="32" s="125">
       <c r="A32" s="129" t="inlineStr">
         <is>
           <t>Specific heat capacity, C_p</t>
@@ -12534,10 +12534,10 @@
       <c r="F32" s="131" t="n"/>
       <c r="G32" s="131" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="33" s="125">
+    <row customHeight="1" ht="15.6" r="33" s="125">
       <c r="A33" s="129" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="34" s="125">
+    <row customHeight="1" ht="15.6" r="34" s="125">
       <c r="A34" s="129" t="inlineStr">
         <is>
           <t>Specific heat capacity, C_v</t>
@@ -12550,10 +12550,10 @@
       <c r="F34" s="131" t="n"/>
       <c r="G34" s="131" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="35" s="125">
+    <row customHeight="1" ht="15.6" r="35" s="125">
       <c r="A35" s="129" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="36" s="125">
+    <row customHeight="1" ht="15.6" r="36" s="125">
       <c r="A36" s="129" t="inlineStr">
         <is>
           <t>Thermal conductivity</t>
@@ -12566,10 +12566,10 @@
       <c r="F36" s="131" t="n"/>
       <c r="G36" s="131" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="37" s="125">
+    <row customHeight="1" ht="15.6" r="37" s="125">
       <c r="A37" s="129" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="38" s="125">
+    <row customHeight="1" ht="15.6" r="38" s="125">
       <c r="A38" s="129" t="inlineStr">
         <is>
           <t>Thermal diffusivity</t>
@@ -12582,10 +12582,10 @@
       <c r="F38" s="131" t="n"/>
       <c r="G38" s="131" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="39" s="125">
+    <row customHeight="1" ht="15.6" r="39" s="125">
       <c r="A39" s="129" t="n"/>
     </row>
-    <row customHeight="1" ht="16" r="40" s="125">
+    <row customHeight="1" ht="15.6" r="40" s="125">
       <c r="A40" s="129" t="inlineStr">
         <is>
           <t>Brittle temperature</t>
